--- a/3.Diseño/Inventario/inventario.xlsx
+++ b/3.Diseño/Inventario/inventario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F\Desktop\QrLean\3.Diseño\Inventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494E8B44-D665-4D40-B047-7EC4AC57CB75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27681ADF-00D3-4792-B274-CB9A59C84BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="10980" xr2:uid="{634AC136-4E74-477E-8CDE-B990AACE1D10}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>Total</t>
   </si>
@@ -76,9 +76,6 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>3.1</t>
-  </si>
-  <si>
     <t>Código</t>
   </si>
   <si>
@@ -109,76 +106,118 @@
     <t>1.5</t>
   </si>
   <si>
+    <t>Inventario proyecto</t>
+  </si>
+  <si>
+    <t>SSl</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Basic MySQL Cluster</t>
+  </si>
+  <si>
+    <t>Heroku production Api</t>
+  </si>
+  <si>
+    <t>Vercel hosting</t>
+  </si>
+  <si>
+    <t>Namecheap dominio y SSL</t>
+  </si>
+  <si>
+    <t>TravisCI</t>
+  </si>
+  <si>
+    <t>Servidor base de datos</t>
+  </si>
+  <si>
+    <t>Heroku production Api (Apache)</t>
+  </si>
+  <si>
+    <t>Vercel hosting (Apache)</t>
+  </si>
+  <si>
+    <t>Servidor</t>
+  </si>
+  <si>
+    <t>Dominio y ssl</t>
+  </si>
+  <si>
+    <t>Despliegue continuo</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Servidor (Front end) proveedor Heroku</t>
+  </si>
+  <si>
+    <t>Servidor (Backend) proveedor Vercel</t>
+  </si>
+  <si>
+    <t>Google analytics</t>
+  </si>
+  <si>
+    <t>Php</t>
+  </si>
+  <si>
+    <t>Java servlets</t>
+  </si>
+  <si>
+    <t>Jquery</t>
+  </si>
+  <si>
+    <t>DigiCert SSL</t>
+  </si>
+  <si>
     <t>1.6</t>
   </si>
   <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
     <t>1.7</t>
   </si>
   <si>
+    <t>Java EE</t>
+  </si>
+  <si>
+    <t>Lenguaje de programación</t>
+  </si>
+  <si>
     <t>1.8</t>
   </si>
   <si>
+    <t>Joomla</t>
+  </si>
+  <si>
+    <t>Content manager</t>
+  </si>
+  <si>
     <t>1.9</t>
   </si>
   <si>
+    <t>Modernizr</t>
+  </si>
+  <si>
+    <t>Css library</t>
+  </si>
+  <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>Inventario proyecto</t>
-  </si>
-  <si>
-    <t>Google analytics</t>
-  </si>
-  <si>
-    <t>Php</t>
-  </si>
-  <si>
-    <t>Java servlets</t>
-  </si>
-  <si>
-    <t>Jquery</t>
-  </si>
-  <si>
-    <t>DigiCert SSL</t>
-  </si>
-  <si>
-    <t>Apache</t>
-  </si>
-  <si>
-    <t>Java EE</t>
-  </si>
-  <si>
-    <t>Joomla</t>
-  </si>
-  <si>
-    <t>Modernizr</t>
-  </si>
-  <si>
     <t>Mustache</t>
   </si>
   <si>
+    <t>Js library</t>
+  </si>
+  <si>
     <t>Slides Js</t>
-  </si>
-  <si>
-    <t>SSl</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>Lenguaje de programación</t>
-  </si>
-  <si>
-    <t>Content manager</t>
-  </si>
-  <si>
-    <t>Css library</t>
-  </si>
-  <si>
-    <t>Js library</t>
-  </si>
-  <si>
-    <t>Hardware</t>
   </si>
   <si>
     <t>Servidor apache</t>
@@ -194,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +265,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -343,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -403,14 +450,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,16 +886,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3951A6DF-4FCE-4AD0-9879-7A933B15F254}">
-  <dimension ref="B1:F30"/>
+  <dimension ref="B1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.42578125" bestFit="1" customWidth="1"/>
@@ -855,12 +908,12 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="33.75" x14ac:dyDescent="0.65">
       <c r="B2" s="20" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="35"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="16"/>
@@ -885,7 +938,7 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="36"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
@@ -910,7 +963,7 @@
     </row>
     <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>1</v>
@@ -936,217 +989,301 @@
       <c r="B11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>28</v>
+      <c r="C11" s="38" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>29</v>
+      <c r="C12" s="38" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>30</v>
+      <c r="C13" s="38" t="s">
+        <v>26</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>31</v>
+      <c r="C14" s="38" t="s">
+        <v>27</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>28</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="13" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="13" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="13" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="13" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="38" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="21"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="37"/>
+      <c r="B23" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="25">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
+      <c r="B24" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="25" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="13" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="13"/>
+      <c r="B26" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="27" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="13"/>
+      <c r="B27" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="28" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="23"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="38"/>
-    </row>
-    <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
+    <row r="29" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="21"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="25">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="23"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="24"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="37"/>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="26"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1157,16 +1294,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A115A34-E921-4039-A44A-045B908BCF2B}">
-  <dimension ref="B2:E24"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -1176,167 +1313,213 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="30"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="30"/>
       <c r="E4" s="2"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="27">
         <v>1</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>28</v>
+      <c r="C7" s="38" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="27">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>29</v>
+      <c r="C8" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="27">
         <v>3</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>30</v>
+      <c r="C9" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="27">
         <v>4</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>31</v>
+      <c r="C10" s="38" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="27">
         <v>5</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>32</v>
+      <c r="C11" s="38" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="41">
+        <v>1</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="41">
+        <v>2</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="27">
+      <c r="D14" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="41">
+        <v>3</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="41">
+        <v>4</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="41">
+        <v>5</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="41">
         <v>6</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="27">
+      <c r="C18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="41">
         <v>7</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="27">
+      <c r="C19" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="41">
         <v>8</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="27">
+      <c r="C20" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="41">
         <v>9</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="27">
+      <c r="C21" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="41">
         <v>10</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="27">
+      <c r="C22" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="41">
         <v>11</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C23" s="12"/>
-    </row>
-    <row r="24" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C24" s="12"/>
+      <c r="C23" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1350,16 +1533,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271A78B6-1116-4ED8-9A37-8D238F1F5BA9}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
@@ -1367,33 +1550,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="30"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="30"/>
       <c r="E4" s="2"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1401,20 +1584,44 @@
         <v>1</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="27">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="27"/>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="27">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C11" s="33"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
